--- a/municipal/ENG/Social Statistic/Recipients of Social Packages/Samegrelo-Zemo Svaneti/Khobi.xlsx
+++ b/municipal/ENG/Social Statistic/Recipients of Social Packages/Samegrelo-Zemo Svaneti/Khobi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Social_Stat\სოციალური სტატ\სოციალური პაკეტის მიმღებთა რიცხოვნობა\სამეგრელო-ზემო სავანეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\Social Statistic\Recipients of Social Packages\Samegrelo-Zemo Svaneti\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,9 +25,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Number of Persons Receiving Social Package in Khobi</t>
-  </si>
   <si>
     <t>(End of year, persons)</t>
   </si>
@@ -75,6 +72,9 @@
       </rPr>
       <t>: Ministry of Internally Displaced Persons from the Occupied Territories, Labour, Health and Social Affairs of Georgia.</t>
     </r>
+  </si>
+  <si>
+    <t>Number of Persons Receiving Social Package in Khobi municipality</t>
   </si>
 </sst>
 </file>
@@ -233,14 +233,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -527,7 +527,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,23 +727,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="A1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -781,7 +781,7 @@
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4">
         <v>1686</v>
@@ -815,34 +815,34 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
+      <c r="A5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="A6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
